--- a/part3/Zipf's Law by 100 ranks.xlsx
+++ b/part3/Zipf's Law by 100 ranks.xlsx
@@ -1232,18 +1232,4 @@
     </office:chart>
   </office:body>
 </office:document-content>
-</file>
-
-<file path=meta.xml><?xml version="1.0" encoding="utf-8"?>
-<office:document-meta xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:meta="urn:oasis:names:tc:opendocument:xmlns:meta:1.0" xmlns:ooo="http://openoffice.org/2004/office" xmlns:grddl="http://www.w3.org/2003/g/data-view#" xmlns:chartooo="http://openoffice.org/2010/chart" office:version="1.2">
-  <office:meta>
-    <meta:generator>LibreOffice/6.0.3.2$Windows_x86 LibreOffice_project/8f48d515416608e3a835360314dac7e47fd0b821</meta:generator>
-  </office:meta>
-</office:document-meta>
-</file>
-
-<file path=styles.xml><?xml version="1.0" encoding="utf-8"?>
-<office:document-styles xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" xmlns:style="urn:oasis:names:tc:opendocument:xmlns:style:1.0" xmlns:text="urn:oasis:names:tc:opendocument:xmlns:text:1.0" xmlns:table="urn:oasis:names:tc:opendocument:xmlns:table:1.0" xmlns:draw="urn:oasis:names:tc:opendocument:xmlns:drawing:1.0" xmlns:fo="urn:oasis:names:tc:opendocument:xmlns:xsl-fo-compatible:1.0" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:number="urn:oasis:names:tc:opendocument:xmlns:datastyle:1.0" xmlns:svg="urn:oasis:names:tc:opendocument:xmlns:svg-compatible:1.0" xmlns:chart="urn:oasis:names:tc:opendocument:xmlns:chart:1.0" xmlns:dr3d="urn:oasis:names:tc:opendocument:xmlns:dr3d:1.0" xmlns:script="urn:oasis:names:tc:opendocument:xmlns:script:1.0" xmlns:ooo="http://openoffice.org/2004/office" xmlns:ooow="http://openoffice.org/2004/writer" xmlns:oooc="http://openoffice.org/2004/calc" xmlns:dom="http://www.w3.org/2001/xml-events" xmlns:rpt="http://openoffice.org/2005/report" xmlns:of="urn:oasis:names:tc:opendocument:xmlns:of:1.2" xmlns:xhtml="http://www.w3.org/1999/xhtml" xmlns:grddl="http://www.w3.org/2003/g/data-view#" xmlns:tableooo="http://openoffice.org/2009/table" xmlns:chartooo="http://openoffice.org/2010/chart" xmlns:drawooo="http://openoffice.org/2010/draw" xmlns:calcext="urn:org:documentfoundation:names:experimental:calc:xmlns:calcext:1.0" xmlns:loext="urn:org:documentfoundation:names:experimental:office:xmlns:loext:1.0" xmlns:field="urn:openoffice:names:experimental:ooo-ms-interop:xmlns:field:1.0" xmlns:css3t="http://www.w3.org/TR/css3-text/" office:version="1.2">
-  <office:styles/>
-</office:document-styles>
 </file>